--- a/Central Planning Assessment/SANDHIYA_S_CMRCLPLANNING INTERN.xlsx
+++ b/Central Planning Assessment/SANDHIYA_S_CMRCLPLANNING INTERN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB144782-E96E-4445-BE05-0CABCB57509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322DA2F3-E068-4EB3-9DCE-18E0B839E4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$E$1:$E$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sample_Data!$A$1:$CF$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sample_Data!$B$1:$B$122</definedName>
     <definedName name="AlphonsoProductId">Sample_Data!$H$109:$H$116</definedName>
     <definedName name="AmrapalliProductId">Sample_Data!$I$109:$I$116</definedName>
     <definedName name="AppleSubCategory">Sample_Data!$BW$6:$BW$8</definedName>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="263">
   <si>
     <t>GMV</t>
   </si>
@@ -956,29 +956,47 @@
     <t>Sub Category</t>
   </si>
   <si>
-    <t>GMV based on Category</t>
+    <t>Enter Product Id</t>
   </si>
   <si>
-    <t>Units Sold based on Category</t>
+    <t>GMV (Category)</t>
   </si>
   <si>
-    <t>ASP Based on Category</t>
+    <t>ASP( Category)</t>
   </si>
   <si>
-    <t>GMV Based on Sub Category</t>
+    <t>UnitsSold(Category)</t>
   </si>
   <si>
-    <t>Units sold based on Sub Category</t>
+    <t>GMV(Sub Category)</t>
   </si>
   <si>
-    <t>ASP Based on Sub Category</t>
+    <t>Units(Sub Category)</t>
+  </si>
+  <si>
+    <t>ASP(Sub Category)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sub Category</t>
+  </si>
+  <si>
+    <t>Ability to have a custom date range vs custom date range comparison of Sub-category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1083,8 +1101,117 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,12 +1250,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1213,11 +1364,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1274,7 +1440,26 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1496,7 +1681,7 @@
   <dimension ref="B2:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -29996,8 +30181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36A3DDC-9021-4971-A541-925AF3100641}">
   <dimension ref="A1:CA122"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="M109" sqref="M109:M115"/>
+    <sheetView topLeftCell="D89" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -50771,7 +50956,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CF104" xr:uid="{B36A3DDC-9021-4971-A541-925AF3100641}"/>
+  <autoFilter ref="B1:B122" xr:uid="{B36A3DDC-9021-4971-A541-925AF3100641}"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50779,88 +50964,802 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1453CE-3AAA-46B1-8352-C64E51C011AC}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:BJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="36" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="36" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:62" s="38" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="36" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="40" cm="1">
+        <f t="array" ref="D2">SUM((Sample_Data!D2:D101+Sample_Data!F2:F101+Sample_Data!H2:H101+Sample_Data!J2:J101+Sample_Data!L2:L101+Sample_Data!N2:N101+Sample_Data!P2:P101+Sample_Data!R2:R101+Sample_Data!T2:T101+Sample_Data!V2:V101+Sample_Data!X2:X101+Sample_Data!Z2:Z101+Sample_Data!AB2:AB101+Sample_Data!AD2:AD101+Sample_Data!AF2:AF101+Sample_Data!AH2:AH101+Sample_Data!AJ2:AJ101+Sample_Data!AL2:AL101+Sample_Data!AN2:AN101+Sample_Data!AP2:AP101+Sample_Data!AR2:AR101+Sample_Data!AT2:AT101+Sample_Data!AV2:AV101+Sample_Data!AX2:AX101+Sample_Data!AZ2:AZ101+Sample_Data!BB2:BB101+Sample_Data!BD2:BD101+Sample_Data!BF2:BF101+Sample_Data!BH2:BH101+Sample_Data!BJ2:BJ101+Sample_Data!BL2:BL101)*(--(Sample_Data!B2:B101=Dashboard!A2)))</f>
+        <v>3094929</v>
+      </c>
+      <c r="E2" s="40" cm="1">
+        <f t="array" ref="E2">SUM((Sample_Data!E2:E101+Sample_Data!G2:G101+Sample_Data!I2:I101+Sample_Data!K2:K101+Sample_Data!M2:M101+Sample_Data!O2:O101+Sample_Data!Q2:Q101+Sample_Data!S2:S101+Sample_Data!U2:U101+Sample_Data!W2:W101+Sample_Data!Y2:Y101+Sample_Data!AA2:AA101+Sample_Data!AC2:AC101+Sample_Data!AE2:AE101+Sample_Data!AG2:AG101+Sample_Data!AI2:AI101+Sample_Data!AK2:AK101+Sample_Data!AM2:AM101+Sample_Data!AO2:AO101+Sample_Data!AQ2:AQ101+Sample_Data!AS2:AS101+Sample_Data!AU2:AU101+Sample_Data!AW2:AW101+Sample_Data!AY2:AY101+Sample_Data!BA2:BA101+Sample_Data!BC2:BC101+Sample_Data!BE2:BE101+Sample_Data!BG2:BG101+Sample_Data!BI2:BI101+Sample_Data!BK2:BK101+Sample_Data!BM2:BM101)*(--(Sample_Data!B2:B101=Dashboard!A2)))</f>
+        <v>6840</v>
+      </c>
+      <c r="F2" s="40">
+        <f>D2/E2</f>
+        <v>452.47500000000002</v>
+      </c>
+      <c r="G2" s="42" cm="1">
+        <f t="array" ref="G2">SUM((Sample_Data!D2:D101+Sample_Data!F2:F101+Sample_Data!H2:H101+Sample_Data!J2:J101+Sample_Data!L2:L101+Sample_Data!N2:N101+Sample_Data!P2:P101+Sample_Data!R2:R101+Sample_Data!T2:T101+Sample_Data!V2:V101+Sample_Data!X2:X101+Sample_Data!Z2:Z101+Sample_Data!AB2:AB101+Sample_Data!AD2:AD101+Sample_Data!AF2:AF101+Sample_Data!AH2:AH101+Sample_Data!AJ2:AJ101+Sample_Data!AL2:AL101+Sample_Data!AN2:AN101+Sample_Data!AP2:AP101+Sample_Data!AR2:AR101+Sample_Data!AT2:AT101+Sample_Data!AV2:AV101+Sample_Data!AX2:AX101+Sample_Data!AZ2:AZ101+Sample_Data!BB2:BB101+Sample_Data!BD2:BD101+Sample_Data!BF2:BF101+Sample_Data!BH2:BH101+Sample_Data!BJ2:BJ101+Sample_Data!BL2:BL101)*(--(Sample_Data!C2:C101=Dashboard!B2)))</f>
+        <v>1625513</v>
+      </c>
+      <c r="H2" s="42" cm="1">
+        <f t="array" ref="H2">SUM((Sample_Data!E2:E101+Sample_Data!G2:G101+Sample_Data!I2:I101+Sample_Data!K2:K101+Sample_Data!M2:M101+Sample_Data!O2:O101+Sample_Data!Q2:Q101+Sample_Data!S2:S101+Sample_Data!U2:U101+Sample_Data!W2:W101+Sample_Data!Y2:Y101+Sample_Data!AA2:AA101+Sample_Data!AC2:AC101+Sample_Data!AE2:AE101+Sample_Data!AG2:AG101+Sample_Data!AI2:AI101+Sample_Data!AK2:AK101+Sample_Data!AM2:AM101+Sample_Data!AO2:AO101+Sample_Data!AQ2:AQ101+Sample_Data!AS2:AS101+Sample_Data!AU2:AU101+Sample_Data!AW2:AW101+Sample_Data!AY2:AY101+Sample_Data!BA2:BA101+Sample_Data!BC2:BC101+Sample_Data!BE2:BE101+Sample_Data!BG2:BG101+Sample_Data!BI2:BI101+Sample_Data!BK2:BK101+Sample_Data!BM2:BM101)*(--(Sample_Data!C2:C101=Dashboard!B2)))</f>
+        <v>3340</v>
+      </c>
+      <c r="I2" s="42">
+        <f>G2/H2</f>
+        <v>486.68053892215568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="54" customHeight="1">
+      <c r="A3" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:62" ht="24.75" customHeight="1">
+      <c r="A4" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5">
+        <f>SUMIFS(INDEX(Sample_Data!D2:BM101,,MATCH(Dashboard!B5,Sample_Data!D1:BM1,0)),Sample_Data!B2:B101,Dashboard!A5)</f>
+        <v>137384</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5">
+        <f>SUMIFS(INDEX(Sample_Data!D2:BM101,,MATCH(Dashboard!E5,Sample_Data!D1:BM1,0)),Sample_Data!B2:B101,Dashboard!D5)</f>
+        <v>156324</v>
+      </c>
+      <c r="G5">
+        <f>F5-C5</f>
+        <v>18940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="50.25" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="31.5" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" ht="36" customHeight="1">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8">
+        <f>SUMIFS(INDEX(Sample_Data!D2:BM101,,MATCH(Dashboard!B8,Sample_Data!D1:BM1,0)),Sample_Data!C2:C101,Dashboard!A8)</f>
+        <v>130367</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8">
+        <f>SUMIFS(INDEX(Sample_Data!D2:BM101,,MATCH(Dashboard!E8,Sample_Data!D1:BM1,0)),Sample_Data!C2:C101,Dashboard!D8)</f>
+        <v>27784</v>
+      </c>
+      <c r="G8">
+        <f>F8-C8</f>
+        <v>-102583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" ht="60.75" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:62" ht="36" customHeight="1">
+      <c r="A10" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>256</v>
+      <c r="B10" s="48" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="11" spans="1:62" ht="36" customHeight="1">
+      <c r="A11" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" ht="36" customHeight="1">
+      <c r="A12" t="str">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!A$11,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>Orange</v>
+      </c>
+      <c r="B12" t="str">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$B$11,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>Tangerine</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" ht="36" customHeight="1">
+      <c r="A13" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="U13" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="V13" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="W13" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y13" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z13" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA13" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB13" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC13" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD13" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE13" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" ht="36" customHeight="1">
+      <c r="A14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$A$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>16450</v>
+      </c>
+      <c r="B14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$B$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>15769</v>
+      </c>
+      <c r="C14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$C$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>19212</v>
+      </c>
+      <c r="D14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$D$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>24138</v>
+      </c>
+      <c r="E14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$E$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>21245</v>
+      </c>
+      <c r="F14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$F$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>22283</v>
+      </c>
+      <c r="G14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$G$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>20197</v>
+      </c>
+      <c r="H14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$H$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>17734</v>
+      </c>
+      <c r="I14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$I$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>20197</v>
+      </c>
+      <c r="J14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$J$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>24138</v>
+      </c>
+      <c r="K14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$K$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>24631</v>
+      </c>
+      <c r="L14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$L$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>13793</v>
+      </c>
+      <c r="M14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$M$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>17242</v>
+      </c>
+      <c r="N14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$N$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>14778</v>
+      </c>
+      <c r="O14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$O$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>17734</v>
+      </c>
+      <c r="P14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$P$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>15271</v>
+      </c>
+      <c r="Q14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Q$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>24631</v>
+      </c>
+      <c r="R14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$R$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>22660</v>
+      </c>
+      <c r="S14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$S$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>23645</v>
+      </c>
+      <c r="T14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$T$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>23153</v>
+      </c>
+      <c r="U14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$U$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>27094</v>
+      </c>
+      <c r="V14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$V$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>38441</v>
+      </c>
+      <c r="W14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$W$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>43964</v>
+      </c>
+      <c r="X14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$X$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>50245</v>
+      </c>
+      <c r="Y14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Y$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>31403</v>
+      </c>
+      <c r="Z14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Z$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>30437</v>
+      </c>
+      <c r="AA14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AA$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>34785</v>
+      </c>
+      <c r="AB14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AB$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>29631</v>
+      </c>
+      <c r="AC14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AC$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>27586</v>
+      </c>
+      <c r="AD14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AD$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>21182</v>
+      </c>
+      <c r="AE14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AE$13,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>43964</v>
+      </c>
+      <c r="AI14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$D$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>49</v>
+      </c>
+      <c r="AJ14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$E$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>43</v>
+      </c>
+      <c r="AK14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$F$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>45</v>
+      </c>
+      <c r="AL14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$G$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>41</v>
+      </c>
+      <c r="AM14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$H$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>36</v>
+      </c>
+      <c r="AN14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$I$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>41</v>
+      </c>
+      <c r="AO14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$J$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>49</v>
+      </c>
+      <c r="AP14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$K$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>50</v>
+      </c>
+      <c r="AQ14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$L$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>28</v>
+      </c>
+      <c r="AR14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$M$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>35</v>
+      </c>
+      <c r="AS14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$N$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>30</v>
+      </c>
+      <c r="AT14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$O$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>36</v>
+      </c>
+      <c r="AU14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$P$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>31</v>
+      </c>
+      <c r="AV14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Q$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>50</v>
+      </c>
+      <c r="AW14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$R$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>46</v>
+      </c>
+      <c r="AX14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$S$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>48</v>
+      </c>
+      <c r="AY14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$T$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>47</v>
+      </c>
+      <c r="AZ14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$U$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>55</v>
+      </c>
+      <c r="BA14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$V$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>78</v>
+      </c>
+      <c r="BB14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$W$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>91</v>
+      </c>
+      <c r="BC14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$X$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>104</v>
+      </c>
+      <c r="BD14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Y$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>65</v>
+      </c>
+      <c r="BE14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Z$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>63</v>
+      </c>
+      <c r="BF14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AA$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>72</v>
+      </c>
+      <c r="BG14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AB$15,Sample_Data!$A$1:$BM$1,0))</f>
         <v>60</v>
       </c>
-      <c r="D2" cm="1">
-        <f t="array" ref="D2">SUM((Sample_Data!D2:D101+Sample_Data!F2:F101+Sample_Data!H2:H101+Sample_Data!J2:J101+Sample_Data!L2:L101+Sample_Data!N2:N101+Sample_Data!P2:P101+Sample_Data!R2:R101+Sample_Data!T2:T101+Sample_Data!V2:V101+Sample_Data!X2:X101+Sample_Data!Z2:Z101+Sample_Data!AB2:AB101+Sample_Data!AD2:AD101+Sample_Data!AF2:AF101+Sample_Data!AH2:AH101+Sample_Data!AJ2:AJ101+Sample_Data!AL2:AL101+Sample_Data!AN2:AN101+Sample_Data!AP2:AP101+Sample_Data!AR2:AR101+Sample_Data!AT2:AT101+Sample_Data!AV2:AV101+Sample_Data!AX2:AX101+Sample_Data!AZ2:AZ101+Sample_Data!BB2:BB101+Sample_Data!BD2:BD101+Sample_Data!BF2:BF101+Sample_Data!BH2:BH101+Sample_Data!BJ2:BJ101+Sample_Data!BL2:BL101)*(--(Sample_Data!B2:B101=Dashboard!A2)))</f>
-        <v>5337859</v>
-      </c>
-      <c r="E2" cm="1">
-        <f t="array" ref="E2">SUM((Sample_Data!E2:E101+Sample_Data!G2:G101+Sample_Data!I2:I101+Sample_Data!K2:K101+Sample_Data!M2:M101+Sample_Data!O2:O101+Sample_Data!Q2:Q101+Sample_Data!S2:S101+Sample_Data!U2:U101+Sample_Data!W2:W101+Sample_Data!Y2:Y101+Sample_Data!AA2:AA101+Sample_Data!AC2:AC101+Sample_Data!AE2:AE101+Sample_Data!AG2:AG101+Sample_Data!AI2:AI101+Sample_Data!AK2:AK101+Sample_Data!AM2:AM101+Sample_Data!AO2:AO101+Sample_Data!AQ2:AQ101+Sample_Data!AS2:AS101+Sample_Data!AU2:AU101+Sample_Data!AW2:AW101+Sample_Data!AY2:AY101+Sample_Data!BA2:BA101+Sample_Data!BC2:BC101+Sample_Data!BE2:BE101+Sample_Data!BG2:BG101+Sample_Data!BI2:BI101+Sample_Data!BK2:BK101+Sample_Data!BM2:BM101)*(--(Sample_Data!B2:B101=Dashboard!A2)))</f>
-        <v>13039</v>
-      </c>
-      <c r="F2">
-        <f>D2/E2</f>
-        <v>409.37640923383697</v>
-      </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">SUM((Sample_Data!D2:D101+Sample_Data!F2:F101+Sample_Data!H2:H101+Sample_Data!J2:J101+Sample_Data!L2:L101+Sample_Data!N2:N101+Sample_Data!P2:P101+Sample_Data!R2:R101+Sample_Data!T2:T101+Sample_Data!V2:V101+Sample_Data!X2:X101+Sample_Data!Z2:Z101+Sample_Data!AB2:AB101+Sample_Data!AD2:AD101+Sample_Data!AF2:AF101+Sample_Data!AH2:AH101+Sample_Data!AJ2:AJ101+Sample_Data!AL2:AL101+Sample_Data!AN2:AN101+Sample_Data!AP2:AP101+Sample_Data!AR2:AR101+Sample_Data!AT2:AT101+Sample_Data!AV2:AV101+Sample_Data!AX2:AX101+Sample_Data!AZ2:AZ101+Sample_Data!BB2:BB101+Sample_Data!BD2:BD101+Sample_Data!BF2:BF101+Sample_Data!BH2:BH101+Sample_Data!BJ2:BJ101+Sample_Data!BL2:BL101)*(--(Sample_Data!C2:C101=Dashboard!B2)))</f>
-        <v>2053769</v>
-      </c>
-      <c r="H2" cm="1">
-        <f t="array" ref="H2">SUM((Sample_Data!E2:E101+Sample_Data!G2:G101+Sample_Data!I2:I101+Sample_Data!K2:K101+Sample_Data!M2:M101+Sample_Data!O2:O101+Sample_Data!Q2:Q101+Sample_Data!S2:S101+Sample_Data!U2:U101+Sample_Data!W2:W101+Sample_Data!Y2:Y101+Sample_Data!AA2:AA101+Sample_Data!AC2:AC101+Sample_Data!AE2:AE101+Sample_Data!AG2:AG101+Sample_Data!AI2:AI101+Sample_Data!AK2:AK101+Sample_Data!AM2:AM101+Sample_Data!AO2:AO101+Sample_Data!AQ2:AQ101+Sample_Data!AS2:AS101+Sample_Data!AU2:AU101+Sample_Data!AW2:AW101+Sample_Data!AY2:AY101+Sample_Data!BA2:BA101+Sample_Data!BC2:BC101+Sample_Data!BE2:BE101+Sample_Data!BG2:BG101+Sample_Data!BI2:BI101+Sample_Data!BK2:BK101+Sample_Data!BM2:BM101)*(--(Sample_Data!C2:C101=Dashboard!B2)))</f>
-        <v>6392</v>
-      </c>
-      <c r="I2">
-        <f>G2/H2</f>
-        <v>321.30303504380475</v>
+      <c r="BH14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AC$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>56</v>
+      </c>
+      <c r="BI14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AD$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>43</v>
+      </c>
+      <c r="BJ14">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AE$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" ht="36" customHeight="1">
+      <c r="A15" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="V15" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="W15" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="X15" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y15" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z15" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA15" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC15" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD15" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE15" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" ht="36" customHeight="1">
+      <c r="A16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$A$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$B$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$C$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$D$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$E$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$F$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$G$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>41</v>
+      </c>
+      <c r="H16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$H$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>36</v>
+      </c>
+      <c r="I16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$I$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$J$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>49</v>
+      </c>
+      <c r="K16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$K$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$L$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$M$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>35</v>
+      </c>
+      <c r="N16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$N$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>30</v>
+      </c>
+      <c r="O16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$O$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>36</v>
+      </c>
+      <c r="P16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$P$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>31</v>
+      </c>
+      <c r="Q16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Q$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>50</v>
+      </c>
+      <c r="R16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$R$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>46</v>
+      </c>
+      <c r="S16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$S$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>48</v>
+      </c>
+      <c r="T16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$T$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>47</v>
+      </c>
+      <c r="U16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$U$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>55</v>
+      </c>
+      <c r="V16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$V$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>78</v>
+      </c>
+      <c r="W16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$W$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>91</v>
+      </c>
+      <c r="X16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$X$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>104</v>
+      </c>
+      <c r="Y16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Y$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>65</v>
+      </c>
+      <c r="Z16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$Z$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>63</v>
+      </c>
+      <c r="AA16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AA$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>72</v>
+      </c>
+      <c r="AB16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AB$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>60</v>
+      </c>
+      <c r="AC16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AC$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>56</v>
+      </c>
+      <c r="AD16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AD$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>43</v>
+      </c>
+      <c r="AE16">
+        <f>INDEX(Sample_Data!$A$2:$BM$101,MATCH(Dashboard!$B$10,Sample_Data!$A$2:$A$101,0),MATCH(Dashboard!$AE$15,Sample_Data!$A$1:$BM$1,0))</f>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <phoneticPr fontId="15" type="noConversion"/>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D52F1BB-92ED-4924-8A81-0BFE9939001E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{C0F9575D-2D8A-452E-807C-351B9BA0C662}">
       <formula1>"Apple, Guava, Mango, Lemon, Orange"</formula1>
     </dataValidation>
@@ -50870,7 +51769,45 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{CCC12133-4943-4906-B87C-E0F0C33C8607}">
       <formula1>INDIRECT($B$2 &amp; "ProductId")</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 D5" xr:uid="{06E870A1-63C2-47B9-832D-685CFBD00EC5}">
+      <formula1>"Apple, Guava, Lemon, Mango, Orange"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{220E02B6-09D1-49EA-AAF4-2B9D42960991}">
+      <formula1>"Red, Robin, Golde, Sour, Lisbon, Nimbu, Oblong, Alphonso, Amrapalli, Green, Indie, Mandarin, Tangerine"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{31BDECBA-08A9-43A1-B6A1-5904C34CFB78}">
+      <formula1>"Red, Robin, Golden, Sour, Indie, Tangerine, Mandarin, Alphonso, Amrapalli, Green, Lisbon, Nimbu, Oblong"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D52F1BB-92ED-4924-8A81-0BFE9939001E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1FC8C5C-4688-4338-853D-5D92D576FBD2}">
+          <x14:formula1>
+            <xm:f>Sample_Data!$D$1:$BM$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5 B5 B8 E8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>